--- a/3. Resultados/04. resultados DIC 16 al DIC 24/Ivonne Mancipe.xlsx
+++ b/3. Resultados/04. resultados DIC 16 al DIC 24/Ivonne Mancipe.xlsx
@@ -1,177 +1,223 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\3. Resultados\04. resultados DIC 16 al DIC 24\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457AFBD3-A73C-436C-A4AD-44DBB1AA16CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">Identificador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de Pago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicio/Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestador/Vendedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part_profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/12/2024 17:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeonji Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne Mancipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retiro de semipermanente de otro lugar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/12/2024 13:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirsten Chong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efectos En Diez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2024 20:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby Garza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2024 19:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Arnaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propina desde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2024 16:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eva aranguren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2024 16:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilar Quintero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2024 15:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuste de Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shampoo Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/12/2024 15:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christine Nation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/12/2024 19:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Jose Palacios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restauración Uña Acrilica o Press On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicure + Base Rubber + Esmaltado Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/12/2024 17:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/12/2024 13:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Perlaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/12/2024 17:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth Linares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/12/2024 12:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priscila Hernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/12/2024 16:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana Correal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/12/2024 17:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producto compañeros retoque x 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/12/2024 15:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producto pestañas compañeros</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Fecha de Pago</t>
+  </si>
+  <si>
+    <t>Nombre cliente</t>
+  </si>
+  <si>
+    <t>Servicio/Producto</t>
+  </si>
+  <si>
+    <t>Prestador/Vendedor</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Part_profesional</t>
+  </si>
+  <si>
+    <t>21/12/2024 17:19</t>
+  </si>
+  <si>
+    <t>Yeonji Yang</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Semipermanente</t>
+  </si>
+  <si>
+    <t>Ivonne Mancipe</t>
+  </si>
+  <si>
+    <t>Retiro de semipermanente de otro lugar</t>
+  </si>
+  <si>
+    <t>21/12/2024 13:07</t>
+  </si>
+  <si>
+    <t>Kirsten Chong</t>
+  </si>
+  <si>
+    <t>Efectos En Diez</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Gel Evolution</t>
+  </si>
+  <si>
+    <t>20/12/2024 20:19</t>
+  </si>
+  <si>
+    <t>Ruby Garza</t>
+  </si>
+  <si>
+    <t>Spa Manicure Semipermanente</t>
+  </si>
+  <si>
+    <t>20/12/2024 19:48</t>
+  </si>
+  <si>
+    <t>Flor Arnaud</t>
+  </si>
+  <si>
+    <t>Spa Manicure Gel Evolution</t>
+  </si>
+  <si>
+    <t>Propina desde</t>
+  </si>
+  <si>
+    <t>20/12/2024 16:58</t>
+  </si>
+  <si>
+    <t>eva aranguren</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Tradicional</t>
+  </si>
+  <si>
+    <t>20/12/2024 16:28</t>
+  </si>
+  <si>
+    <t>Pilar Quintero</t>
+  </si>
+  <si>
+    <t>20/12/2024 15:31</t>
+  </si>
+  <si>
+    <t>Ajuste de Producto</t>
+  </si>
+  <si>
+    <t>Shampoo Tradicional</t>
+  </si>
+  <si>
+    <t>20/12/2024 15:22</t>
+  </si>
+  <si>
+    <t>Christine Nation</t>
+  </si>
+  <si>
+    <t>19/12/2024 19:18</t>
+  </si>
+  <si>
+    <t>Maria Jose Palacios</t>
+  </si>
+  <si>
+    <t>Restauración Uña Acrilica o Press On</t>
+  </si>
+  <si>
+    <t>Manicure + Base Rubber + Esmaltado Semipermanente</t>
+  </si>
+  <si>
+    <t>19/12/2024 17:35</t>
+  </si>
+  <si>
+    <t>19/12/2024 13:20</t>
+  </si>
+  <si>
+    <t>Liliana Perlaza</t>
+  </si>
+  <si>
+    <t>18/12/2024 17:37</t>
+  </si>
+  <si>
+    <t>Elizabeth Linares</t>
+  </si>
+  <si>
+    <t>18/12/2024 12:14</t>
+  </si>
+  <si>
+    <t>Priscila Hernandez</t>
+  </si>
+  <si>
+    <t>16/12/2024 16:16</t>
+  </si>
+  <si>
+    <t>Mariana Correal</t>
+  </si>
+  <si>
+    <t>24/12/2024 17:41</t>
+  </si>
+  <si>
+    <t>producto compañeros retoque x 15</t>
+  </si>
+  <si>
+    <t>19/12/2024 15:41</t>
+  </si>
+  <si>
+    <t>producto pestañas compañeros</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>Descuento - Anticipo</t>
+  </si>
+  <si>
+    <t>Descuento - 4 Aluerzos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo  - Almuerzos </t>
+  </si>
+  <si>
+    <t>Fondo  - Intereses</t>
+  </si>
+  <si>
+    <t>Fondo  - Rifa No.1</t>
+  </si>
+  <si>
+    <t>Fondo  - Rifa No.2</t>
+  </si>
+  <si>
+    <t>Fondo  - Ahorro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot; #,##0;[Red]&quot;$&quot; -#,##0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,17 +227,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,22 +274,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{F79198C2-3447-478A-B93A-5AEAD7513AD5}"/>
+    <cellStyle name="Moneda 2" xfId="3" xr:uid="{EF35B6B9-65DB-4420-BC8F-365264497B80}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C8BD8228-FE97-43D5-BF83-76BC6F9787DB}"/>
+    <cellStyle name="Porcentaje 2" xfId="4" xr:uid="{D27AF477-4DEA-41CC-925F-80EA84B2EF24}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,23 +593,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="49.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="16.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +632,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>36297177</v>
       </c>
       <c r="B2" t="s">
@@ -565,15 +648,15 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>67000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>30150</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>36297177</v>
       </c>
       <c r="B3" t="s">
@@ -588,15 +671,15 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>36274870</v>
       </c>
       <c r="B4" t="s">
@@ -611,15 +694,15 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>32000</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>36274870</v>
       </c>
       <c r="B5" t="s">
@@ -634,15 +717,15 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>38000</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>17100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>36249441</v>
       </c>
       <c r="B6" t="s">
@@ -657,15 +740,15 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>60000</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>36247968</v>
       </c>
       <c r="B7" t="s">
@@ -680,15 +763,15 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>32000</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>36247968</v>
       </c>
       <c r="B8" t="s">
@@ -703,15 +786,15 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>5000</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>4820</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>36234829</v>
       </c>
       <c r="B9" t="s">
@@ -726,15 +809,15 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>34000</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>15300</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>36232957</v>
       </c>
       <c r="B10" t="s">
@@ -749,15 +832,15 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5000</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>4820</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>36232957</v>
       </c>
       <c r="B11" t="s">
@@ -772,15 +855,15 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>32000</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>36225747</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -795,15 +878,15 @@
       <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>15000</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3">
         <v>-3750</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>36225487</v>
       </c>
       <c r="B13" t="s">
@@ -818,15 +901,15 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>60000</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>36186466</v>
       </c>
       <c r="B14" t="s">
@@ -841,15 +924,15 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>8000</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>7712</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>36186466</v>
       </c>
       <c r="B15" t="s">
@@ -864,15 +947,15 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>15000</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>6750</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>36186466</v>
       </c>
       <c r="B16" t="s">
@@ -887,15 +970,15 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>67000</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>30150</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>36186466</v>
       </c>
       <c r="B17" t="s">
@@ -910,15 +993,15 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>75000</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>33750</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>36181761</v>
       </c>
       <c r="B18" t="s">
@@ -933,15 +1016,15 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>32000</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>36157504</v>
       </c>
       <c r="B19" t="s">
@@ -956,15 +1039,15 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>32000</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>36125962</v>
       </c>
       <c r="B20" t="s">
@@ -979,15 +1062,15 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>32000</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>36101364</v>
       </c>
       <c r="B21" t="s">
@@ -1002,15 +1085,15 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>11200</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>5040</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>36022302</v>
       </c>
       <c r="B22" t="s">
@@ -1025,15 +1108,15 @@
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>10000</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>9640</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>36022302</v>
       </c>
       <c r="B23" t="s">
@@ -1048,15 +1131,15 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>60000</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>36453493</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1071,15 +1154,15 @@
       <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="4">
         <v>30000</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>36169068</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1094,15 +1177,175 @@
       <c r="E25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="4">
         <v>40000</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="3">
         <v>-40000</v>
       </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="str">
+        <f>+B28</f>
+        <v>24/12/2024</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="str">
+        <f t="shared" ref="B30:B33" si="0">+B29</f>
+        <v>24/12/2024</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>22793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>24/12/2024</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>24/12/2024</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>24/12/2024</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>